--- a/CuentasSIT.xlsx
+++ b/CuentasSIT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Desktop\baks\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="415">
   <si>
     <t>Descripción</t>
   </si>
@@ -1263,6 +1263,15 @@
   </si>
   <si>
     <t>Alta Linea Equip New AG Credito</t>
+  </si>
+  <si>
+    <t>Trivias Y Suscripciones</t>
+  </si>
+  <si>
+    <t>Reintegros</t>
+  </si>
+  <si>
+    <t>Modificacion De Datos</t>
   </si>
 </sst>
 </file>
@@ -1371,12 +1380,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF00396B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00396B"/>
       <name val="Arial"/>
@@ -1401,8 +1404,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1425,6 +1435,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1532,7 +1554,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,15 +1632,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2240,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2653,10 +2680,10 @@
       <c r="G9" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="57" t="s">
         <v>375</v>
       </c>
       <c r="J9" s="31" t="s">
@@ -2674,13 +2701,13 @@
       <c r="N9">
         <v>666</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="57">
         <v>666</v>
       </c>
-      <c r="P9" s="59" t="s">
+      <c r="P9" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="Q9" s="59" t="s">
+      <c r="Q9" s="57" t="s">
         <v>379</v>
       </c>
       <c r="R9" s="31" t="s">
@@ -2689,7 +2716,7 @@
       <c r="S9" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="58" t="s">
         <v>380</v>
       </c>
       <c r="U9" s="31" t="s">
@@ -2784,10 +2811,10 @@
       <c r="E12" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="57" t="s">
         <v>375</v>
       </c>
     </row>
@@ -2900,7 +2927,7 @@
       <c r="L15">
         <v>666</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="57">
         <v>666</v>
       </c>
     </row>
@@ -4761,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4953,7 +4980,7 @@
       <c r="A8" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="60">
         <v>19006577</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -4979,7 +5006,7 @@
       <c r="C9" s="42">
         <v>123</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="59">
         <v>1515151515</v>
       </c>
       <c r="E9" s="31"/>
@@ -5020,10 +5047,10 @@
       <c r="C12" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="57" t="s">
         <v>379</v>
       </c>
       <c r="F12" s="31" t="s">
@@ -5032,7 +5059,7 @@
       <c r="G12" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="58" t="s">
         <v>380</v>
       </c>
       <c r="I12" s="31" t="s">
@@ -5058,19 +5085,19 @@
       <c r="A13" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="60">
         <v>18766558</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="57" t="s">
         <v>378</v>
       </c>
       <c r="E13" t="s">
         <v>393</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="57" t="s">
         <v>400</v>
       </c>
       <c r="G13" s="31" t="s">
@@ -5079,7 +5106,7 @@
       <c r="H13" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="58" t="s">
         <v>380</v>
       </c>
       <c r="J13" s="31" t="s">
@@ -5094,7 +5121,7 @@
       <c r="M13" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="N13" s="62">
+      <c r="N13" s="60">
         <v>18766558</v>
       </c>
       <c r="O13" s="31" t="s">
@@ -5136,16 +5163,16 @@
       <c r="C16" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="57" t="s">
         <v>385</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="58" t="s">
         <v>386</v>
       </c>
       <c r="H16" s="31" t="s">
@@ -5171,22 +5198,44 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15">
         <v>38452795</v>
       </c>
     </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="64">
+        <v>59885133</v>
+      </c>
+    </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="57"/>
+      <c r="A19" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="64">
+        <v>19006577</v>
+      </c>
+      <c r="C19" s="55"/>
       <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="58"/>
-      <c r="N20" s="63"/>
+      <c r="A20" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="64">
+        <v>10777540</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="N20" s="61"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="64"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>

--- a/CuentasSIT.xlsx
+++ b/CuentasSIT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Desktop\baks\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="420">
   <si>
     <t>Descripción</t>
   </si>
@@ -968,9 +968,6 @@
     <t>Ninguno</t>
   </si>
   <si>
-    <t>9900000718810001</t>
-  </si>
-  <si>
     <t>steventyler@gmail.com</t>
   </si>
   <si>
@@ -1127,9 +1124,6 @@
     <t>Emma Valentina Miranda</t>
   </si>
   <si>
-    <t>9900000766810001</t>
-  </si>
-  <si>
     <t>ProblemaRecargas</t>
   </si>
   <si>
@@ -1214,9 +1208,6 @@
     <t>4487790000000018</t>
   </si>
   <si>
-    <t>Neta Lyn Chang</t>
-  </si>
-  <si>
     <t>Alta Linea Equipo Existe OfCom Debito</t>
   </si>
   <si>
@@ -1272,6 +1263,30 @@
   </si>
   <si>
     <t>Modificacion De Datos</t>
+  </si>
+  <si>
+    <t>Amiga VozySMS</t>
+  </si>
+  <si>
+    <t>9900000662410001</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3574409493</t>
+  </si>
+  <si>
+    <t>Amigos Modificacion</t>
+  </si>
+  <si>
+    <t>Amigos Baja</t>
+  </si>
+  <si>
+    <t>SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>Villa martelli</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1569,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,13 +1622,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1628,9 +1641,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1985,7 +1995,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2190,7 +2200,7 @@
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="43"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
     </row>
@@ -2198,7 +2208,7 @@
       <c r="A9" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="42">
         <v>46534534</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -2216,35 +2226,35 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="43"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="42">
         <v>46534534</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="42">
         <v>1158423198</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="42">
         <v>23444455</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="42">
         <v>1158423198</v>
       </c>
     </row>
@@ -2352,10 +2362,10 @@
         <v>294</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
         <v>275</v>
@@ -2373,24 +2383,24 @@
         <v>114</v>
       </c>
       <c r="I2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" t="s">
         <v>321</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>324</v>
-      </c>
       <c r="M2" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>310</v>
       </c>
       <c r="P2" s="31" t="s">
@@ -2444,7 +2454,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4">
         <v>52486595</v>
@@ -2510,13 +2520,13 @@
         <v>308</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" t="s">
         <v>354</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>355</v>
-      </c>
-      <c r="D6" t="s">
-        <v>356</v>
       </c>
       <c r="E6" t="s">
         <v>276</v>
@@ -2531,15 +2541,15 @@
         <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="41" t="s">
         <v>310</v>
       </c>
       <c r="M6" s="31" t="s">
@@ -2551,25 +2561,25 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7">
         <v>59886017</v>
       </c>
       <c r="C7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" t="s">
         <v>357</v>
-      </c>
-      <c r="D7" t="s">
-        <v>358</v>
       </c>
       <c r="E7" t="s">
         <v>276</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="50">
         <v>32016</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H7" t="s">
         <v>114</v>
@@ -2578,10 +2588,10 @@
         <v>280</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L7">
         <v>1524</v>
@@ -2589,46 +2599,46 @@
       <c r="M7">
         <v>1524</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="R7" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="R7" s="31" t="s">
+      <c r="S7" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="T7" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="T7" s="31" t="s">
+      <c r="U7" s="31" t="s">
         <v>338</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>339</v>
       </c>
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
-      <c r="X7" s="46"/>
+      <c r="X7" s="44"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" t="s">
         <v>346</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>347</v>
-      </c>
-      <c r="D8" t="s">
-        <v>348</v>
       </c>
       <c r="E8" t="s">
         <v>276</v>
@@ -2637,19 +2647,19 @@
         <v>278</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H8" t="s">
         <v>114</v>
       </c>
       <c r="I8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>323</v>
       </c>
       <c r="L8">
         <v>1524</v>
@@ -2660,13 +2670,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>362</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>276</v>
@@ -2674,116 +2684,116 @@
       <c r="E9" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>374</v>
+      <c r="F9" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>377</v>
-      </c>
       <c r="M9" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N9">
         <v>666</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="54">
         <v>666</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="T9" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="Q9" s="57" t="s">
+      <c r="U9" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="R9" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="T9" s="58" t="s">
+      <c r="V9" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="W9" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="V9" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="X9" s="46"/>
+      <c r="X9" s="44"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>343</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="E10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>344</v>
       </c>
       <c r="H10" t="s">
         <v>114</v>
       </c>
       <c r="I10" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" t="s">
         <v>321</v>
       </c>
-      <c r="J10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K10" s="49"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>401</v>
+        <v>390</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2792,12 +2802,12 @@
         <v>2019</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B12">
         <v>38363881</v>
@@ -2806,39 +2816,39 @@
         <v>114</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="G12" s="57" t="s">
-        <v>375</v>
+      <c r="G12" s="54" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>364</v>
+        <v>393</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>363</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2847,33 +2857,33 @@
         <v>2019</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>403</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>114</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
@@ -2892,13 +2902,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" t="s">
         <v>347</v>
-      </c>
-      <c r="C15" t="s">
-        <v>348</v>
       </c>
       <c r="D15" t="s">
         <v>276</v>
@@ -2907,27 +2917,27 @@
         <v>278</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G15" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>280</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L15">
         <v>666</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="54">
         <v>666</v>
       </c>
     </row>
@@ -3130,7 +3140,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3204,13 +3214,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4786,10 +4796,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4849,16 +4859,16 @@
       <c r="A2" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>46534534</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="38">
         <v>1158423198</v>
       </c>
       <c r="F2">
@@ -4869,11 +4879,18 @@
       <c r="A3" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="36">
-        <v>23444455</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="37">
+        <v>46534534</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3">
+        <v>1158423198</v>
+      </c>
       <c r="G3">
         <v>1161138552</v>
       </c>
@@ -4882,16 +4899,16 @@
       <c r="A4" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>46534534</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>1158423198</v>
       </c>
     </row>
@@ -4899,35 +4916,35 @@
       <c r="A5" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="I5" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="J5" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="K5" s="31" t="s">
         <v>338</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>339</v>
       </c>
       <c r="L5" s="31" t="s">
         <v>302</v>
@@ -4943,70 +4960,70 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="57">
+        <v>35667788</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="B7" s="57">
+        <v>35667788</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="B8" s="57">
+        <v>35667788</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" t="s">
         <v>317</v>
-      </c>
-      <c r="B8" s="60">
-        <v>19006577</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="F8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="C9" s="42">
+        <v>318</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="40">
         <v>123</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="56">
         <v>1515151515</v>
       </c>
       <c r="E9" s="31"/>
@@ -5022,167 +5039,176 @@
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>364</v>
+      <c r="A10" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>364</v>
+      <c r="A11" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="D12" s="57" t="s">
+      <c r="A12" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="57">
+        <v>35667788</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="I12" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="H12" s="58" t="s">
+      <c r="J12" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="K12" s="31" t="s">
         <v>381</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>383</v>
       </c>
       <c r="L12" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="M12" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="N12" s="51" t="s">
-        <v>371</v>
+      <c r="M12" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="N12" s="49" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="B13" s="60">
-        <v>18766558</v>
+      <c r="A13" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="57">
+        <v>35667788</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="D13" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="I13" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="E13" t="s">
-        <v>393</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>400</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="I13" s="58" t="s">
+      <c r="J13" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="L13" s="31" t="s">
         <v>381</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>383</v>
       </c>
       <c r="M13" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="57">
         <v>18766558</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>351</v>
+      <c r="A14" s="43" t="s">
+        <v>350</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>350</v>
+      <c r="A15" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>349</v>
       </c>
       <c r="C15" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="H16" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="G16" s="58" t="s">
+      <c r="I16" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>386</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>388</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>302</v>
@@ -5191,58 +5217,130 @@
         <v>19784521</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="N16" s="31">
-        <v>3463406620</v>
+        <v>387</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>398</v>
+      <c r="A17" s="59" t="s">
+        <v>395</v>
       </c>
       <c r="B17" s="15">
         <v>38452795</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
-        <v>412</v>
-      </c>
-      <c r="B18" s="64">
+      <c r="A18" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" s="61">
         <v>59885133</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>413</v>
-      </c>
-      <c r="B19" s="64">
+      <c r="A19" s="62" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="61">
         <v>19006577</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="51"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="B20" s="64">
+      <c r="A20" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="61">
         <v>10777540</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="N20" s="61"/>
+      <c r="D20" s="53"/>
+      <c r="N20" s="58"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" s="61">
+        <v>46534534</v>
+      </c>
+      <c r="C21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="38">
+        <v>1158423198</v>
+      </c>
+      <c r="F21">
+        <v>1161138553</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
-      <c r="E22" s="49"/>
+      <c r="A22" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22" s="61">
+        <v>46534534</v>
+      </c>
+      <c r="C22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="38">
+        <v>1158423198</v>
+      </c>
+      <c r="G22">
+        <v>1161138554</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="53"/>
+      <c r="A23" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" s="61">
+        <v>46534534</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1158423198</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="B24" s="61">
+        <v>46534534</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="38">
+        <v>1158423198</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CuentasSIT.xlsx
+++ b/CuentasSIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="420">
   <si>
     <t>Descripción</t>
   </si>
@@ -1121,9 +1121,6 @@
     <t>15907314</t>
   </si>
   <si>
-    <t>Emma Valentina Miranda</t>
-  </si>
-  <si>
     <t>ProblemaRecargas</t>
   </si>
   <si>
@@ -1250,9 +1247,6 @@
     <t>Linea Nueva Equipo AG</t>
   </si>
   <si>
-    <t>Galaxy S8+ - Negro</t>
-  </si>
-  <si>
     <t>Alta Linea Equip New AG Credito</t>
   </si>
   <si>
@@ -1287,13 +1281,19 @@
   </si>
   <si>
     <t>Villa martelli</t>
+  </si>
+  <si>
+    <t>19784521</t>
+  </si>
+  <si>
+    <t>14725836</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1378,13 +1378,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1637,25 +1630,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2277,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2575,7 +2568,7 @@
       <c r="E7" t="s">
         <v>276</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="49">
         <v>32016</v>
       </c>
       <c r="G7" s="33" t="s">
@@ -2653,24 +2646,24 @@
         <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="L8">
-        <v>1524</v>
-      </c>
-      <c r="M8">
-        <v>1524</v>
+      <c r="L8" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>360</v>
@@ -2684,26 +2677,26 @@
       <c r="E9" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="F9" s="48" t="s">
-        <v>372</v>
+      <c r="F9" s="47" t="s">
+        <v>371</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="K9" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>374</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>375</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>322</v>
@@ -2711,14 +2704,14 @@
       <c r="N9">
         <v>666</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="53">
         <v>666</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="P9" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q9" s="53" t="s">
         <v>376</v>
-      </c>
-      <c r="Q9" s="54" t="s">
-        <v>377</v>
       </c>
       <c r="R9" s="31" t="s">
         <v>333</v>
@@ -2726,17 +2719,17 @@
       <c r="S9" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="T9" s="55" t="s">
+      <c r="T9" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="U9" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="V9" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="V9" s="31" t="s">
+      <c r="W9" s="31" t="s">
         <v>380</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>381</v>
       </c>
       <c r="X9" s="44"/>
     </row>
@@ -2747,14 +2740,14 @@
       <c r="B10" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" t="s">
         <v>370</v>
-      </c>
-      <c r="E10" t="s">
-        <v>371</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>344</v>
@@ -2765,35 +2758,37 @@
       <c r="H10" t="s">
         <v>114</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="J10" t="s">
         <v>320</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>333</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2802,53 +2797,53 @@
         <v>2019</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B12">
-        <v>38363881</v>
+        <v>404</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>419</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="G12" s="54" t="s">
-        <v>373</v>
+      <c r="G12" s="53" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>363</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>333</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2857,33 +2852,33 @@
         <v>2019</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>401</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F14" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="47" t="s">
         <v>402</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>403</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>114</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
@@ -2902,7 +2897,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
         <v>346</v>
@@ -2923,13 +2918,13 @@
         <v>114</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>280</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>322</v>
@@ -2937,7 +2932,7 @@
       <c r="L15">
         <v>666</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="53">
         <v>666</v>
       </c>
     </row>
@@ -4798,8 +4793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4919,14 +4914,14 @@
       <c r="B5" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>332</v>
+      <c r="C5" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>376</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>333</v>
@@ -4934,45 +4929,45 @@
       <c r="G5" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>335</v>
+      <c r="H5" s="54" t="s">
+        <v>377</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="L5" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="M5" s="31">
-        <v>19784521</v>
+      <c r="M5" s="36" t="s">
+        <v>418</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="O5" s="31">
-        <v>3463406620</v>
+      <c r="O5" s="31" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <v>35667788</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="E6" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4980,16 +4975,16 @@
       <c r="A7" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>35667788</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="E7" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4997,14 +4992,14 @@
       <c r="A8" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>35667788</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>313</v>
@@ -5023,7 +5018,7 @@
       <c r="C9" s="40">
         <v>123</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="55">
         <v>1515151515</v>
       </c>
       <c r="E9" s="31"/>
@@ -5049,15 +5044,15 @@
         <v>280</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>363</v>
@@ -5067,17 +5062,17 @@
       <c r="A12" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>35667788</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="53" t="s">
         <v>376</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>377</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>333</v>
@@ -5085,17 +5080,17 @@
       <c r="G12" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="J12" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="K12" s="31" t="s">
         <v>380</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>381</v>
       </c>
       <c r="L12" s="31" t="s">
         <v>302</v>
@@ -5103,28 +5098,28 @@
       <c r="M12" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="N12" s="49" t="s">
-        <v>369</v>
+      <c r="N12" s="48" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>35667788</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>376</v>
+        <v>410</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>375</v>
       </c>
       <c r="E13" t="s">
-        <v>391</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>397</v>
+        <v>390</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>396</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>333</v>
@@ -5132,26 +5127,26 @@
       <c r="H13" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="K13" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="L13" s="31" t="s">
         <v>380</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>381</v>
       </c>
       <c r="M13" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="56">
         <v>18766558</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P13" t="s">
         <v>340</v>
@@ -5162,53 +5157,53 @@
         <v>350</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>349</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>382</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>383</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="I16" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>385</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>386</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>302</v>
@@ -5217,53 +5212,53 @@
         <v>19784521</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>395</v>
+      <c r="A17" s="58" t="s">
+        <v>394</v>
       </c>
       <c r="B17" s="15">
         <v>38452795</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="60">
+        <v>59885133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="60">
+        <v>19006577</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="B18" s="61">
-        <v>59885133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="B19" s="61">
-        <v>19006577</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="51"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="B20" s="61">
+      <c r="B20" s="60">
         <v>10777540</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="N20" s="58"/>
+      <c r="D20" s="52"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="B21" s="61">
+      <c r="A21" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="60">
         <v>46534534</v>
       </c>
       <c r="C21" t="s">
@@ -5280,10 +5275,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="B22" s="61">
+      <c r="A22" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="B22" s="60">
         <v>46534534</v>
       </c>
       <c r="C22" t="s">
@@ -5300,10 +5295,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
-        <v>417</v>
-      </c>
-      <c r="B23" s="61">
+      <c r="A23" s="62" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="60">
         <v>46534534</v>
       </c>
       <c r="C23" t="s">
@@ -5320,10 +5315,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>417</v>
-      </c>
-      <c r="B24" s="61">
+      <c r="A24" s="62" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="60">
         <v>46534534</v>
       </c>
       <c r="C24" t="s">
@@ -5340,7 +5335,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CuentasSIT.xlsx
+++ b/CuentasSIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="433">
   <si>
     <t>Descripción</t>
   </si>
@@ -1287,6 +1287,45 @@
   </si>
   <si>
     <t>14725836</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>N° Tarjeta</t>
+  </si>
+  <si>
+    <t>Mes venc</t>
+  </si>
+  <si>
+    <t>Año venc</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Tipo de doc</t>
+  </si>
+  <si>
+    <t>N° Documento</t>
+  </si>
+  <si>
+    <t>Titular</t>
+  </si>
+  <si>
+    <t>Promo</t>
+  </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>Renocacion Cuota S/Saldo con Tarjeta</t>
+  </si>
+  <si>
+    <t>4507990000001</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1601,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1649,6 +1688,7 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2033,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2061,17 +2101,39 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -2249,6 +2311,63 @@
       </c>
       <c r="D11" s="42">
         <v>1158423198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>23444455</v>
+      </c>
+      <c r="D12">
+        <v>1158423198</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>2020</v>
+      </c>
+      <c r="J13">
+        <v>318</v>
+      </c>
+      <c r="K13" t="s">
+        <v>302</v>
+      </c>
+      <c r="L13">
+        <v>19784521</v>
+      </c>
+      <c r="M13" t="s">
+        <v>300</v>
+      </c>
+      <c r="N13" t="s">
+        <v>396</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2270,7 +2389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4793,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4958,8 +5077,8 @@
       <c r="A6" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="56">
-        <v>35667788</v>
+      <c r="B6" s="64">
+        <v>15907314</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>410</v>
@@ -4975,8 +5094,8 @@
       <c r="A7" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="56">
-        <v>35667788</v>
+      <c r="B7" s="55">
+        <v>15907314</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>410</v>
